--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Icam1-Itgax.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Icam1-Itgax.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.2543990670205</v>
+        <v>28.316642</v>
       </c>
       <c r="H2">
-        <v>28.2543990670205</v>
+        <v>84.949926</v>
       </c>
       <c r="I2">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J2">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>11.0078826404307</v>
+        <v>0.02697933333333333</v>
       </c>
       <c r="N2">
-        <v>11.0078826404307</v>
+        <v>0.080938</v>
       </c>
       <c r="O2">
-        <v>0.4345988708763299</v>
+        <v>0.0008941297188036159</v>
       </c>
       <c r="P2">
-        <v>0.4345988708763299</v>
+        <v>0.0008941297188036158</v>
       </c>
       <c r="Q2">
-        <v>311.0211090056563</v>
+        <v>0.7639641233986666</v>
       </c>
       <c r="R2">
-        <v>311.0211090056563</v>
+        <v>6.875677110588</v>
       </c>
       <c r="S2">
-        <v>0.1061784206752408</v>
+        <v>0.0002130331823534396</v>
       </c>
       <c r="T2">
-        <v>0.1061784206752408</v>
+        <v>0.0002130331823534396</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.2543990670205</v>
+        <v>28.316642</v>
       </c>
       <c r="H3">
-        <v>28.2543990670205</v>
+        <v>84.949926</v>
       </c>
       <c r="I3">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J3">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.3209513214116</v>
+        <v>11.33306466666667</v>
       </c>
       <c r="N3">
-        <v>14.3209513214116</v>
+        <v>33.999194</v>
       </c>
       <c r="O3">
-        <v>0.5654011291236701</v>
+        <v>0.3755923023891076</v>
       </c>
       <c r="P3">
-        <v>0.5654011291236701</v>
+        <v>0.3755923023891076</v>
       </c>
       <c r="Q3">
-        <v>404.6298736545379</v>
+        <v>320.9143349288494</v>
       </c>
       <c r="R3">
-        <v>404.6298736545379</v>
+        <v>2888.229014359644</v>
       </c>
       <c r="S3">
-        <v>0.1381351930742415</v>
+        <v>0.08948771275880267</v>
       </c>
       <c r="T3">
-        <v>0.1381351930742415</v>
+        <v>0.08948771275880268</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.0402255896116</v>
+        <v>28.316642</v>
       </c>
       <c r="H4">
-        <v>32.0402255896116</v>
+        <v>84.949926</v>
       </c>
       <c r="I4">
-        <v>0.2770493642628414</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J4">
-        <v>0.2770493642628414</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.0078826404307</v>
+        <v>18.80862433333333</v>
       </c>
       <c r="N4">
-        <v>11.0078826404307</v>
+        <v>56.425873</v>
       </c>
       <c r="O4">
-        <v>0.4345988708763299</v>
+        <v>0.6233419402349768</v>
       </c>
       <c r="P4">
-        <v>0.4345988708763299</v>
+        <v>0.6233419402349767</v>
       </c>
       <c r="Q4">
-        <v>352.695043063369</v>
+        <v>532.5970817594887</v>
       </c>
       <c r="R4">
-        <v>352.695043063369</v>
+        <v>4793.373735835398</v>
       </c>
       <c r="S4">
-        <v>0.1204053408856359</v>
+        <v>0.1485159417364035</v>
       </c>
       <c r="T4">
-        <v>0.1204053408856359</v>
+        <v>0.1485159417364035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.0402255896116</v>
+        <v>28.316642</v>
       </c>
       <c r="H5">
-        <v>32.0402255896116</v>
+        <v>84.949926</v>
       </c>
       <c r="I5">
-        <v>0.2770493642628414</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J5">
-        <v>0.2770493642628414</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>14.3209513214116</v>
+        <v>0.005178666666666666</v>
       </c>
       <c r="N5">
-        <v>14.3209513214116</v>
+        <v>0.015536</v>
       </c>
       <c r="O5">
-        <v>0.5654011291236701</v>
+        <v>0.0001716276571120237</v>
       </c>
       <c r="P5">
-        <v>0.5654011291236701</v>
+        <v>0.0001716276571120237</v>
       </c>
       <c r="Q5">
-        <v>458.846510995874</v>
+        <v>0.1466424500373333</v>
       </c>
       <c r="R5">
-        <v>458.846510995874</v>
+        <v>1.319782050336</v>
       </c>
       <c r="S5">
-        <v>0.1566440233772055</v>
+        <v>4.089159011889395E-05</v>
       </c>
       <c r="T5">
-        <v>0.1566440233772055</v>
+        <v>4.089159011889394E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,184 +779,184 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.9072500677621</v>
+        <v>32.208719</v>
       </c>
       <c r="H6">
-        <v>18.9072500677621</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I6">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J6">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>11.0078826404307</v>
+        <v>0.02697933333333333</v>
       </c>
       <c r="N6">
-        <v>11.0078826404307</v>
+        <v>0.080938</v>
       </c>
       <c r="O6">
-        <v>0.4345988708763299</v>
+        <v>0.0008941297188036159</v>
       </c>
       <c r="P6">
-        <v>0.4345988708763299</v>
+        <v>0.0008941297188036158</v>
       </c>
       <c r="Q6">
-        <v>208.1287897992006</v>
+        <v>0.8689697661406667</v>
       </c>
       <c r="R6">
-        <v>208.1287897992006</v>
+        <v>7.820727895266</v>
       </c>
       <c r="S6">
-        <v>0.07105236769484474</v>
+        <v>0.0002423142513896138</v>
       </c>
       <c r="T6">
-        <v>0.07105236769484474</v>
+        <v>0.0002423142513896138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.9072500677621</v>
+        <v>32.208719</v>
       </c>
       <c r="H7">
-        <v>18.9072500677621</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I7">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J7">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.3209513214116</v>
+        <v>11.33306466666667</v>
       </c>
       <c r="N7">
-        <v>14.3209513214116</v>
+        <v>33.999194</v>
       </c>
       <c r="O7">
-        <v>0.5654011291236701</v>
+        <v>0.3755923023891076</v>
       </c>
       <c r="P7">
-        <v>0.5654011291236701</v>
+        <v>0.3755923023891076</v>
       </c>
       <c r="Q7">
-        <v>270.7698078421772</v>
+        <v>365.0234952574954</v>
       </c>
       <c r="R7">
-        <v>270.7698078421772</v>
+        <v>3285.211457317459</v>
       </c>
       <c r="S7">
-        <v>0.09243716818815004</v>
+        <v>0.1017876552665034</v>
       </c>
       <c r="T7">
-        <v>0.09243716818815004</v>
+        <v>0.1017876552665034</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>36.1718308203635</v>
+        <v>32.208719</v>
       </c>
       <c r="H8">
-        <v>36.1718308203635</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I8">
-        <v>0.3127750366481187</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J8">
-        <v>0.3127750366481187</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.0078826404307</v>
+        <v>18.80862433333333</v>
       </c>
       <c r="N8">
-        <v>11.0078826404307</v>
+        <v>56.425873</v>
       </c>
       <c r="O8">
-        <v>0.4345988708763299</v>
+        <v>0.6233419402349768</v>
       </c>
       <c r="P8">
-        <v>0.4345988708763299</v>
+        <v>0.6233419402349767</v>
       </c>
       <c r="Q8">
-        <v>398.1752685600756</v>
+        <v>605.8016959288957</v>
       </c>
       <c r="R8">
-        <v>398.1752685600756</v>
+        <v>5452.215263360062</v>
       </c>
       <c r="S8">
-        <v>0.1359316777655751</v>
+        <v>0.1689292195878379</v>
       </c>
       <c r="T8">
-        <v>0.1359316777655751</v>
+        <v>0.1689292195878379</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>36.1718308203635</v>
+        <v>32.208719</v>
       </c>
       <c r="H9">
-        <v>36.1718308203635</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I9">
-        <v>0.3127750366481187</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J9">
-        <v>0.3127750366481187</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>14.3209513214116</v>
+        <v>0.005178666666666666</v>
       </c>
       <c r="N9">
-        <v>14.3209513214116</v>
+        <v>0.015536</v>
       </c>
       <c r="O9">
-        <v>0.5654011291236701</v>
+        <v>0.0001716276571120237</v>
       </c>
       <c r="P9">
-        <v>0.5654011291236701</v>
+        <v>0.0001716276571120237</v>
       </c>
       <c r="Q9">
-        <v>518.0150283847615</v>
+        <v>0.1667982194613333</v>
       </c>
       <c r="R9">
-        <v>518.0150283847615</v>
+        <v>1.501183975152</v>
       </c>
       <c r="S9">
-        <v>0.1768433588825436</v>
+        <v>4.651207355740245E-05</v>
       </c>
       <c r="T9">
-        <v>0.1768433588825436</v>
+        <v>4.651207355740246E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.274369212109465</v>
+        <v>19.02080233333333</v>
       </c>
       <c r="H10">
-        <v>0.274369212109465</v>
+        <v>57.06240699999999</v>
       </c>
       <c r="I10">
-        <v>0.002372449456562812</v>
+        <v>0.1600419399895302</v>
       </c>
       <c r="J10">
-        <v>0.002372449456562812</v>
+        <v>0.1600419399895302</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>11.0078826404307</v>
+        <v>0.02697933333333333</v>
       </c>
       <c r="N10">
-        <v>11.0078826404307</v>
+        <v>0.080938</v>
       </c>
       <c r="O10">
-        <v>0.4345988708763299</v>
+        <v>0.0008941297188036159</v>
       </c>
       <c r="P10">
-        <v>0.4345988708763299</v>
+        <v>0.0008941297188036158</v>
       </c>
       <c r="Q10">
-        <v>3.020224087048429</v>
+        <v>0.5131685664184443</v>
       </c>
       <c r="R10">
-        <v>3.020224087048429</v>
+        <v>4.618517097766</v>
       </c>
       <c r="S10">
-        <v>0.001031063855033361</v>
+        <v>0.0001430982547996238</v>
       </c>
       <c r="T10">
-        <v>0.001031063855033361</v>
+        <v>0.0001430982547996238</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>19.02080233333333</v>
+      </c>
+      <c r="H11">
+        <v>57.06240699999999</v>
+      </c>
+      <c r="I11">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="J11">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.33306466666667</v>
+      </c>
+      <c r="N11">
+        <v>33.999194</v>
+      </c>
+      <c r="O11">
+        <v>0.3755923023891076</v>
+      </c>
+      <c r="P11">
+        <v>0.3755923023891076</v>
+      </c>
+      <c r="Q11">
+        <v>215.5639828555509</v>
+      </c>
+      <c r="R11">
+        <v>1940.075845699958</v>
+      </c>
+      <c r="S11">
+        <v>0.06011052071948703</v>
+      </c>
+      <c r="T11">
+        <v>0.06011052071948703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>19.02080233333333</v>
+      </c>
+      <c r="H12">
+        <v>57.06240699999999</v>
+      </c>
+      <c r="I12">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="J12">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>18.80862433333333</v>
+      </c>
+      <c r="N12">
+        <v>56.425873</v>
+      </c>
+      <c r="O12">
+        <v>0.6233419402349768</v>
+      </c>
+      <c r="P12">
+        <v>0.6233419402349767</v>
+      </c>
+      <c r="Q12">
+        <v>357.7551256062568</v>
+      </c>
+      <c r="R12">
+        <v>3219.796130456311</v>
+      </c>
+      <c r="S12">
+        <v>0.09976085339204348</v>
+      </c>
+      <c r="T12">
+        <v>0.09976085339204346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>19.02080233333333</v>
+      </c>
+      <c r="H13">
+        <v>57.06240699999999</v>
+      </c>
+      <c r="I13">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="J13">
+        <v>0.1600419399895302</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.005178666666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.015536</v>
+      </c>
+      <c r="O13">
+        <v>0.0001716276571120237</v>
+      </c>
+      <c r="P13">
+        <v>0.0001716276571120237</v>
+      </c>
+      <c r="Q13">
+        <v>0.09850239501688889</v>
+      </c>
+      <c r="R13">
+        <v>0.8865215551519998</v>
+      </c>
+      <c r="S13">
+        <v>2.746762320006617E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.746762320006617E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.274369212109465</v>
-      </c>
-      <c r="H11">
-        <v>0.274369212109465</v>
-      </c>
-      <c r="I11">
-        <v>0.002372449456562812</v>
-      </c>
-      <c r="J11">
-        <v>0.002372449456562812</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>14.3209513214116</v>
-      </c>
-      <c r="N11">
-        <v>14.3209513214116</v>
-      </c>
-      <c r="O11">
-        <v>0.5654011291236701</v>
-      </c>
-      <c r="P11">
-        <v>0.5654011291236701</v>
-      </c>
-      <c r="Q11">
-        <v>3.929228130713703</v>
-      </c>
-      <c r="R11">
-        <v>3.929228130713703</v>
-      </c>
-      <c r="S11">
-        <v>0.001341385601529452</v>
-      </c>
-      <c r="T11">
-        <v>0.001341385601529452</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H14">
+        <v>116.802773</v>
+      </c>
+      <c r="I14">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J14">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.02697933333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.080938</v>
+      </c>
+      <c r="O14">
+        <v>0.0008941297188036159</v>
+      </c>
+      <c r="P14">
+        <v>0.0008941297188036158</v>
+      </c>
+      <c r="Q14">
+        <v>1.050420315674889</v>
+      </c>
+      <c r="R14">
+        <v>9.453782841074</v>
+      </c>
+      <c r="S14">
+        <v>0.0002929121614525763</v>
+      </c>
+      <c r="T14">
+        <v>0.0002929121614525763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H15">
+        <v>116.802773</v>
+      </c>
+      <c r="I15">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J15">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.33306466666667</v>
+      </c>
+      <c r="N15">
+        <v>33.999194</v>
+      </c>
+      <c r="O15">
+        <v>0.3755923023891076</v>
+      </c>
+      <c r="P15">
+        <v>0.3755923023891076</v>
+      </c>
+      <c r="Q15">
+        <v>441.2444598849958</v>
+      </c>
+      <c r="R15">
+        <v>3971.200138964962</v>
+      </c>
+      <c r="S15">
+        <v>0.1230420494969664</v>
+      </c>
+      <c r="T15">
+        <v>0.1230420494969664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H16">
+        <v>116.802773</v>
+      </c>
+      <c r="I16">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J16">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.80862433333333</v>
+      </c>
+      <c r="N16">
+        <v>56.425873</v>
+      </c>
+      <c r="O16">
+        <v>0.6233419402349768</v>
+      </c>
+      <c r="P16">
+        <v>0.6233419402349767</v>
+      </c>
+      <c r="Q16">
+        <v>732.2998261495366</v>
+      </c>
+      <c r="R16">
+        <v>6590.698435345829</v>
+      </c>
+      <c r="S16">
+        <v>0.2042035190179961</v>
+      </c>
+      <c r="T16">
+        <v>0.2042035190179961</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H17">
+        <v>116.802773</v>
+      </c>
+      <c r="I17">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J17">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.005178666666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.015536</v>
+      </c>
+      <c r="O17">
+        <v>0.0001716276571120237</v>
+      </c>
+      <c r="P17">
+        <v>0.0001716276571120237</v>
+      </c>
+      <c r="Q17">
+        <v>0.2016275423697778</v>
+      </c>
+      <c r="R17">
+        <v>1.814647881328</v>
+      </c>
+      <c r="S17">
+        <v>5.622431169941469E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.622431169941469E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.105321</v>
+      </c>
+      <c r="I18">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J18">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.02697933333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.080938</v>
+      </c>
+      <c r="O18">
+        <v>0.0008941297188036159</v>
+      </c>
+      <c r="P18">
+        <v>0.0008941297188036158</v>
+      </c>
+      <c r="Q18">
+        <v>0.009940274566444442</v>
+      </c>
+      <c r="R18">
+        <v>0.089462471098</v>
+      </c>
+      <c r="S18">
+        <v>2.771868808362308E-06</v>
+      </c>
+      <c r="T18">
+        <v>2.771868808362308E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.105321</v>
+      </c>
+      <c r="I19">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J19">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11.33306466666667</v>
+      </c>
+      <c r="N19">
+        <v>33.999194</v>
+      </c>
+      <c r="O19">
+        <v>0.3755923023891076</v>
+      </c>
+      <c r="P19">
+        <v>0.3755923023891076</v>
+      </c>
+      <c r="Q19">
+        <v>4.175558123474889</v>
+      </c>
+      <c r="R19">
+        <v>37.580023111274</v>
+      </c>
+      <c r="S19">
+        <v>0.00116436414734808</v>
+      </c>
+      <c r="T19">
+        <v>0.001164364147348081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.105321</v>
+      </c>
+      <c r="I20">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J20">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>18.80862433333333</v>
+      </c>
+      <c r="N20">
+        <v>56.425873</v>
+      </c>
+      <c r="O20">
+        <v>0.6233419402349768</v>
+      </c>
+      <c r="P20">
+        <v>0.6233419402349767</v>
+      </c>
+      <c r="Q20">
+        <v>6.929855818914778</v>
+      </c>
+      <c r="R20">
+        <v>62.368702370233</v>
+      </c>
+      <c r="S20">
+        <v>0.001932406500695754</v>
+      </c>
+      <c r="T20">
+        <v>0.001932406500695754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.105321</v>
+      </c>
+      <c r="I21">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J21">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.005178666666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.015536</v>
+      </c>
+      <c r="O21">
+        <v>0.0001716276571120237</v>
+      </c>
+      <c r="P21">
+        <v>0.0001716276571120237</v>
+      </c>
+      <c r="Q21">
+        <v>0.001908029672888889</v>
+      </c>
+      <c r="R21">
+        <v>0.017172267056</v>
+      </c>
+      <c r="S21">
+        <v>5.320585362464703E-07</v>
+      </c>
+      <c r="T21">
+        <v>5.320585362464703E-07</v>
       </c>
     </row>
   </sheetData>
